--- a/Northern rock sole/Data/nrs_single_species_2022.xlsx
+++ b/Northern rock sole/Data/nrs_single_species_2022.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/Rceattle-models/Northern rock sole/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant.adams\GitHub\Rceattle-models\Northern rock sole\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA513DF-7BB2-BC41-8552-7C110CD39024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9E22E-673A-4B7D-BE24-81E5D67A0BAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29960" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="29955" windowHeight="15045" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
     <sheet name="control" sheetId="2" r:id="rId2"/>
     <sheet name="fleet_control" sheetId="3" r:id="rId3"/>
-    <sheet name="srv_biom" sheetId="4" r:id="rId4"/>
-    <sheet name="fsh_biom" sheetId="5" r:id="rId5"/>
+    <sheet name="index_data" sheetId="4" r:id="rId4"/>
+    <sheet name="catch_data" sheetId="5" r:id="rId5"/>
     <sheet name="comp_data" sheetId="6" r:id="rId6"/>
     <sheet name="emp_sel" sheetId="7" r:id="rId7"/>
     <sheet name="NByageFixed" sheetId="8" r:id="rId8"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="402">
   <si>
     <t>Number</t>
   </si>
@@ -374,12 +374,6 @@
     <t>Age_first_selected</t>
   </si>
   <si>
-    <t>Accumatation_age_lower</t>
-  </si>
-  <si>
-    <t>Accumatation_age_upper</t>
-  </si>
-  <si>
     <t>Weight1_Numbers2</t>
   </si>
   <si>
@@ -1245,6 +1239,18 @@
   </si>
   <si>
     <t>nrs_fishery_split</t>
+  </si>
+  <si>
+    <t>Age_max_selected</t>
+  </si>
+  <si>
+    <t>Comp_loglike</t>
+  </si>
+  <si>
+    <t>Estimate_index_sd</t>
+  </si>
+  <si>
+    <t>Index_sd_prior</t>
   </si>
 </sst>
 </file>
@@ -1337,9 +1343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1377,9 +1383,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1412,9 +1418,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1447,9 +1470,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1629,13 +1669,13 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1643,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -1655,15 +1695,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1672,21 +1712,21 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1695,21 +1735,21 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
         <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1718,21 +1758,21 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
         <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1741,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1750,12 +1790,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1764,21 +1804,21 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1787,21 +1827,21 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1810,7 +1850,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1819,12 +1859,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1833,21 +1873,21 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1856,21 +1896,21 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1879,21 +1919,21 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
         <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1902,21 +1942,21 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -1925,30 +1965,30 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>41</v>
@@ -1957,12 +1997,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -1971,7 +2011,7 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
         <v>31</v>
@@ -1980,12 +2020,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -1994,30 +2034,30 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
         <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
@@ -2026,119 +2066,119 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F20" t="s">
         <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -2149,16 +2189,16 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -2169,56 +2209,56 @@
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -2226,19 +2266,19 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G27" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -2249,7 +2289,7 @@
         <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F28" t="s">
         <v>27</v>
@@ -2258,7 +2298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -2269,16 +2309,16 @@
         <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
@@ -2292,10 +2332,10 @@
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -2306,7 +2346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
@@ -2317,7 +2357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2331,7 +2371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -2345,7 +2385,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -2362,7 +2402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -2370,13 +2410,13 @@
         <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -2387,11 +2427,11 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -2402,10 +2442,10 @@
         <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -2419,7 +2459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -2433,7 +2473,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -2447,7 +2487,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -2461,7 +2501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -2475,7 +2515,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -2489,7 +2529,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -2503,7 +2543,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
@@ -2517,18 +2557,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D47" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -2536,10 +2576,10 @@
         <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41</v>
       </c>
@@ -2550,7 +2590,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42</v>
       </c>
@@ -2561,7 +2601,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
@@ -2588,77 +2628,77 @@
       <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2726,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2794,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2862,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2930,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2998,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3066,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3134,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3202,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3270,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3338,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3406,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3474,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3542,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3610,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3678,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3746,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3814,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3882,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3950,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4018,9 +4058,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4037,17 +4077,17 @@
       <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -4056,72 +4096,72 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4196,9 +4236,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4273,9 +4313,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4350,9 +4390,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4427,9 +4467,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4504,9 +4544,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4581,9 +4621,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4658,9 +4698,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4735,9 +4775,9 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4812,9 +4852,9 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4889,9 +4929,9 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4966,9 +5006,9 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5043,9 +5083,9 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5120,9 +5160,9 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5197,9 +5237,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5274,9 +5314,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5351,9 +5391,9 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5428,9 +5468,9 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5505,9 +5545,9 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5582,9 +5622,9 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5659,9 +5699,9 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5736,9 +5776,9 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -5813,9 +5853,9 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5890,9 +5930,9 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -5967,9 +6007,9 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6044,9 +6084,9 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6121,9 +6161,9 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6198,9 +6238,9 @@
         <v>0.90833333299999997</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6275,9 +6315,9 @@
         <v>0.88339153400000003</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6352,9 +6392,9 @@
         <v>0.84371059800000003</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6429,9 +6469,9 @@
         <v>0.77412171399999996</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6506,9 +6546,9 @@
         <v>0.73636649700000001</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6583,9 +6623,9 @@
         <v>0.77338142499999996</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6660,9 +6700,9 @@
         <v>0.76740165100000002</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6737,9 +6777,9 @@
         <v>0.73439984700000005</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -6814,9 +6854,9 @@
         <v>0.735214166</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -6891,9 +6931,9 @@
         <v>0.73521964299999998</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -6968,9 +7008,9 @@
         <v>0.764442383</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7045,9 +7085,9 @@
         <v>0.77246930000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7122,9 +7162,9 @@
         <v>0.76579950699999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7199,9 +7239,9 @@
         <v>0.80692585900000002</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7276,9 +7316,9 @@
         <v>0.85389639699999997</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7353,9 +7393,9 @@
         <v>0.89396136299999995</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7430,9 +7470,9 @@
         <v>0.91618772400000004</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7507,9 +7547,9 @@
         <v>0.89716061400000002</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -7584,9 +7624,9 @@
         <v>0.88314444700000005</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -7661,9 +7701,9 @@
         <v>0.90132087599999999</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -7738,9 +7778,9 @@
         <v>0.92754545499999996</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -7815,9 +7855,9 @@
         <v>0.92754545499999996</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -7892,9 +7932,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -7969,9 +8009,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8046,9 +8086,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8123,9 +8163,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8200,9 +8240,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8277,9 +8317,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8354,9 +8394,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -8431,9 +8471,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -8508,9 +8548,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8585,9 +8625,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8662,9 +8702,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8739,9 +8779,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8816,9 +8856,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8893,9 +8933,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8970,9 +9010,9 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -9047,9 +9087,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -9124,9 +9164,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -9201,9 +9241,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -9278,9 +9318,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -9355,9 +9395,9 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -9432,9 +9472,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -9509,9 +9549,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9586,9 +9626,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9663,9 +9703,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -9740,9 +9780,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -9817,9 +9857,9 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -9894,9 +9934,9 @@
         <v>0.47522222200000003</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9971,9 +10011,9 @@
         <v>0.48740740700000001</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -10048,9 +10088,9 @@
         <v>0.475180247</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -10125,9 +10165,9 @@
         <v>0.41332674899999999</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -10202,9 +10242,9 @@
         <v>0.39874994200000002</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10279,9 +10319,9 @@
         <v>0.42189100600000001</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -10356,9 +10396,9 @@
         <v>0.42863033499999997</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10433,9 +10473,9 @@
         <v>0.46345455600000002</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -10510,9 +10550,9 @@
         <v>0.467034852</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10587,9 +10627,9 @@
         <v>0.45320606200000002</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -10664,9 +10704,9 @@
         <v>0.47508257599999998</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10741,9 +10781,9 @@
         <v>0.47742525299999999</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -10818,9 +10858,9 @@
         <v>0.457747811</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -10895,9 +10935,9 @@
         <v>0.455315937</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -10972,9 +11012,9 @@
         <v>0.477105312</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11049,9 +11089,9 @@
         <v>0.51354419500000004</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -11126,9 +11166,9 @@
         <v>0.54470953700000002</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -11203,9 +11243,9 @@
         <v>0.55768889300000002</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11280,9 +11320,9 @@
         <v>0.57579213100000004</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11357,9 +11397,9 @@
         <v>0.61828487700000001</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11434,9 +11474,9 @@
         <v>0.666875</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -11511,9 +11551,9 @@
         <v>0.666875</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -11588,9 +11628,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -11665,9 +11705,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -11742,9 +11782,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -11819,9 +11859,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -11896,9 +11936,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -11973,9 +12013,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -12050,9 +12090,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -12127,9 +12167,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -12204,9 +12244,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -12281,9 +12321,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -12358,9 +12398,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -12435,9 +12475,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -12512,9 +12552,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -12589,9 +12629,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -12666,9 +12706,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -12743,9 +12783,9 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -12820,9 +12860,9 @@
         <v>0.96322284300000005</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -12897,9 +12937,9 @@
         <v>0.99223467700000001</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -12974,9 +13014,9 @@
         <v>0.85802063900000003</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -13051,9 +13091,9 @@
         <v>0.89918701599999995</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -13128,9 +13168,9 @@
         <v>0.92816629399999995</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -13205,9 +13245,9 @@
         <v>0.91940215599999997</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -13282,9 +13322,9 @@
         <v>0.90119402599999998</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -13359,9 +13399,9 @@
         <v>0.89409881700000005</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -13436,9 +13476,9 @@
         <v>0.80566895199999999</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -13513,9 +13553,9 @@
         <v>0.70270070600000001</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -13590,9 +13630,9 @@
         <v>0.81251375000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -13667,9 +13707,9 @@
         <v>0.86275022199999996</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -13744,9 +13784,9 @@
         <v>0.70793990100000004</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -13821,9 +13861,9 @@
         <v>0.68376139300000005</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -13898,9 +13938,9 @@
         <v>0.64889375400000004</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -13975,9 +14015,9 @@
         <v>0.64320291900000004</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -14052,9 +14092,9 @@
         <v>0.61121418699999996</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -14129,9 +14169,9 @@
         <v>0.63778937400000002</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -14206,9 +14246,9 @@
         <v>0.64295290699999996</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -14283,9 +14323,9 @@
         <v>0.65066126899999999</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -14360,9 +14400,9 @@
         <v>0.64162342800000005</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -14437,9 +14477,9 @@
         <v>0.65289251800000003</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -14514,9 +14554,9 @@
         <v>0.64950750899999998</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -14591,9 +14631,9 @@
         <v>0.70995538000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -14668,9 +14708,9 @@
         <v>0.72394610599999998</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -14745,9 +14785,9 @@
         <v>0.66398863399999997</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -14822,9 +14862,9 @@
         <v>0.73466971599999997</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -14899,9 +14939,9 @@
         <v>0.73136915199999997</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -14976,9 +15016,9 @@
         <v>0.71719073099999997</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -15053,9 +15093,9 @@
         <v>0.75526591600000004</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -15130,9 +15170,9 @@
         <v>0.65195025900000003</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -15207,9 +15247,9 @@
         <v>0.65195025900000003</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -15284,9 +15324,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -15361,9 +15401,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -15438,9 +15478,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -15515,9 +15555,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -15592,9 +15632,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -15669,9 +15709,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B152">
         <v>2</v>
@@ -15746,9 +15786,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -15823,9 +15863,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -15900,9 +15940,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -15977,9 +16017,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -16054,9 +16094,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -16131,9 +16171,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -16208,9 +16248,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -16285,9 +16325,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -16362,9 +16402,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -16439,9 +16479,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -16516,9 +16556,9 @@
         <v>0.80000266399999997</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -16593,9 +16633,9 @@
         <v>1.0028710709999999</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -16670,9 +16710,9 @@
         <v>0.85603315700000004</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -16747,9 +16787,9 @@
         <v>0.988170722</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -16824,9 +16864,9 @@
         <v>0.91176940399999995</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -16901,9 +16941,9 @@
         <v>0.93971108800000003</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -16978,9 +17018,9 @@
         <v>0.92392109300000003</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -17055,9 +17095,9 @@
         <v>0.81503118900000004</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -17132,9 +17172,9 @@
         <v>0.80742357200000003</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -17209,9 +17249,9 @@
         <v>0.52279398700000002</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -17286,9 +17326,9 @@
         <v>0.93842249300000002</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -17363,9 +17403,9 @@
         <v>0.79600684399999999</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -17440,9 +17480,9 @@
         <v>0.56065653199999999</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -17517,9 +17557,9 @@
         <v>0.47112794299999999</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B176">
         <v>2</v>
@@ -17594,9 +17634,9 @@
         <v>0.50297598200000004</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B177">
         <v>2</v>
@@ -17671,9 +17711,9 @@
         <v>0.41462006600000001</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -17748,9 +17788,9 @@
         <v>0.402796192</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -17825,9 +17865,9 @@
         <v>0.35655076699999999</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -17902,9 +17942,9 @@
         <v>0.46935446800000002</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B181">
         <v>2</v>
@@ -17979,9 +18019,9 @@
         <v>0.40309148700000003</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -18056,9 +18096,9 @@
         <v>0.39138188000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -18133,9 +18173,9 @@
         <v>0.54426407899999996</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -18210,9 +18250,9 @@
         <v>0.429249461</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -18287,9 +18327,9 @@
         <v>0.43813274000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -18364,9 +18404,9 @@
         <v>0.46019475700000001</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -18441,9 +18481,9 @@
         <v>0.39074431700000001</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B188">
         <v>2</v>
@@ -18518,9 +18558,9 @@
         <v>0.49188400900000001</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -18595,9 +18635,9 @@
         <v>0.59742802900000003</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B190">
         <v>2</v>
@@ -18672,9 +18712,9 @@
         <v>0.62542388699999996</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -18749,9 +18789,9 @@
         <v>0.76915847100000001</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -18826,9 +18866,9 @@
         <v>0.51974893700000002</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -18904,7 +18944,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y193">
+  <sortState ref="A2:Y193">
     <sortCondition ref="B2:B193"/>
     <sortCondition ref="D2:D193"/>
     <sortCondition ref="E2:E193"/>
@@ -18921,74 +18961,74 @@
       <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19066,74 +19106,74 @@
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19211,9 +19251,9 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -19221,67 +19261,67 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19349,7 +19389,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19430,9 +19470,9 @@
       <selection activeCell="W3" sqref="A2:W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -19440,94 +19480,94 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -19543,20 +19583,20 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19580,17 +19620,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -19598,15 +19638,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -19614,7 +19654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -19622,7 +19662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -19630,7 +19670,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -19638,7 +19678,7 @@
         <v>-0.19900000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -19646,7 +19686,7 @@
         <v>2.4969999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -19654,7 +19694,7 @@
         <v>20.512</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -19662,7 +19702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -19670,7 +19710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -19678,7 +19718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -19699,17 +19739,17 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1975</v>
       </c>
@@ -19717,7 +19757,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1976</v>
       </c>
@@ -19725,7 +19765,7 @@
         <v>0.413157895</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1977</v>
       </c>
@@ -19733,7 +19773,7 @@
         <v>8.3157894999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1978</v>
       </c>
@@ -19741,7 +19781,7 @@
         <v>-0.18684210500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1979</v>
       </c>
@@ -19749,7 +19789,7 @@
         <v>1.1431578950000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1980</v>
       </c>
@@ -19757,7 +19797,7 @@
         <v>1.1731578949999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1981</v>
       </c>
@@ -19765,7 +19805,7 @@
         <v>0.42315789500000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1982</v>
       </c>
@@ -19773,7 +19813,7 @@
         <v>0.74315789499999996</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1983</v>
       </c>
@@ -19781,7 +19821,7 @@
         <v>0.58315789500000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1984</v>
       </c>
@@ -19789,7 +19829,7 @@
         <v>0.49315789500000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1985</v>
       </c>
@@ -19797,7 +19837,7 @@
         <v>0.11315789499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1986</v>
       </c>
@@ -19805,7 +19845,7 @@
         <v>0.38315789500000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1987</v>
       </c>
@@ -19813,7 +19853,7 @@
         <v>0.37315789500000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1988</v>
       </c>
@@ -19821,7 +19861,7 @@
         <v>0.30315789500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1989</v>
       </c>
@@ -19829,7 +19869,7 @@
         <v>1.2131578949999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1990</v>
       </c>
@@ -19837,7 +19877,7 @@
         <v>0.543157895</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1991</v>
       </c>
@@ -19845,7 +19885,7 @@
         <v>0.75315789499999997</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1992</v>
       </c>
@@ -19853,7 +19893,7 @@
         <v>0.483157895</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1993</v>
       </c>
@@ -19861,7 +19901,7 @@
         <v>-0.98684210500000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1994</v>
       </c>
@@ -19869,7 +19909,7 @@
         <v>-0.586842105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1995</v>
       </c>
@@ -19877,7 +19917,7 @@
         <v>-0.29684210500000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1996</v>
       </c>
@@ -19885,7 +19925,7 @@
         <v>0.44315789500000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1997</v>
       </c>
@@ -19893,7 +19933,7 @@
         <v>-0.52684210499999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1998</v>
       </c>
@@ -19901,7 +19941,7 @@
         <v>-1.1468421049999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1999</v>
       </c>
@@ -19909,7 +19949,7 @@
         <v>0.57315789500000003</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2000</v>
       </c>
@@ -19917,7 +19957,7 @@
         <v>1.1431578950000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2001</v>
       </c>
@@ -19925,7 +19965,7 @@
         <v>1.2131578949999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2002</v>
       </c>
@@ -19933,7 +19973,7 @@
         <v>0.97315789500000005</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2003</v>
       </c>
@@ -19941,7 +19981,7 @@
         <v>1.573157895</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2004</v>
       </c>
@@ -19949,7 +19989,7 @@
         <v>-0.75684210500000004</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2005</v>
       </c>
@@ -19957,7 +19997,7 @@
         <v>0.46315789499999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2006</v>
       </c>
@@ -19965,7 +20005,7 @@
         <v>-0.75684210500000004</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2007</v>
       </c>
@@ -19973,7 +20013,7 @@
         <v>-0.96684210500000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2008</v>
       </c>
@@ -19981,7 +20021,7 @@
         <v>-0.89684210499999995</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2009</v>
       </c>
@@ -19989,7 +20029,7 @@
         <v>0.34315789499999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2010</v>
       </c>
@@ -19997,7 +20037,7 @@
         <v>-0.22684210499999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -20005,7 +20045,7 @@
         <v>-7.6842104999999994E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2012</v>
       </c>
@@ -20013,7 +20053,7 @@
         <v>-0.21684210500000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2013</v>
       </c>
@@ -20021,7 +20061,7 @@
         <v>-0.34684210500000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2014</v>
       </c>
@@ -20029,7 +20069,7 @@
         <v>-0.61684210500000003</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -20037,7 +20077,7 @@
         <v>0.70315789500000003</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2016</v>
       </c>
@@ -20045,7 +20085,7 @@
         <v>-0.48684210500000002</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2017</v>
       </c>
@@ -20053,7 +20093,7 @@
         <v>-0.77684210499999995</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -20061,7 +20101,7 @@
         <v>0.36315789500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2019</v>
       </c>
@@ -20069,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -20077,7 +20117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -20085,7 +20125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2022</v>
       </c>
@@ -20106,9 +20146,9 @@
       <selection activeCell="A2" sqref="A2:X93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -20116,97 +20156,97 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -20222,20 +20262,20 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -20243,7 +20283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -20251,7 +20291,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -20259,7 +20299,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -20267,7 +20307,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -20275,7 +20315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -20283,7 +20323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -20291,7 +20331,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -20299,7 +20339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -20307,7 +20347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -20315,7 +20355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -20323,7 +20363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -20331,15 +20371,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -20347,7 +20387,7 @@
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -20355,7 +20395,7 @@
         <v>66300000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -20363,7 +20403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -20371,25 +20411,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -20408,35 +20448,35 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
         <v>326</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>328</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>329</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
         <v>330</v>
-      </c>
-      <c r="F1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -20448,17 +20488,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -20490,19 +20530,19 @@
         <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>59</v>
@@ -20511,7 +20551,7 @@
         <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>56</v>
@@ -20520,30 +20560,30 @@
         <v>53</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -20566,6 +20606,9 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
       <c r="M2">
         <v>1</v>
       </c>
@@ -20606,9 +20649,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -20630,6 +20673,9 @@
       </c>
       <c r="I3">
         <v>0.2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -20663,12 +20709,12 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -20679,27 +20725,27 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -20726,9 +20772,9 @@
         <v>74.756683899999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -20755,9 +20801,9 @@
         <v>82.551420859999993</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -20784,9 +20830,9 @@
         <v>82.504202930000005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -20813,9 +20859,9 @@
         <v>59.287056990000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -20842,9 +20888,9 @@
         <v>84.244378819999994</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -20871,9 +20917,9 @@
         <v>91.829623760000004</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -20900,9 +20946,9 @@
         <v>102.32285659999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -20929,9 +20975,9 @@
         <v>91.621063750000005</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -20958,9 +21004,9 @@
         <v>89.569603169999993</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -20987,9 +21033,9 @@
         <v>96.706512399999994</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -21016,9 +21062,9 @@
         <v>113.0489365</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -21045,9 +21091,9 @@
         <v>122.9735685</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -21074,9 +21120,9 @@
         <v>224.87090900000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -21103,9 +21149,9 @@
         <v>131.58707649999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -21132,9 +21178,9 @@
         <v>122.57397109999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -21161,9 +21207,9 @@
         <v>190.96846540000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -21190,9 +21236,9 @@
         <v>124.1564365</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -21219,9 +21265,9 @@
         <v>162.9234318</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -21248,9 +21294,9 @@
         <v>320.29166379999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -21277,9 +21323,9 @@
         <v>258.82126419999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -21306,9 +21352,9 @@
         <v>171.3147529</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -21335,9 +21381,9 @@
         <v>196.90877470000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -21364,9 +21410,9 @@
         <v>184.92805490000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -21393,9 +21439,9 @@
         <v>151.1787199</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -21422,9 +21468,9 @@
         <v>151.00490970000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -21451,9 +21497,9 @@
         <v>280.38823589999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -21480,9 +21526,9 @@
         <v>302.06141330000003</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -21509,9 +21555,9 @@
         <v>159.9182399</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -21538,9 +21584,9 @@
         <v>204.58995400000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -21567,9 +21613,9 @@
         <v>165.99600430000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -21596,9 +21642,9 @@
         <v>186.9453504</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -21625,9 +21671,9 @@
         <v>137.62898000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -21654,9 +21700,9 @@
         <v>130.2928465</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -21683,9 +21729,9 @@
         <v>131.48970410000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -21712,9 +21758,9 @@
         <v>131.9518377</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -21741,9 +21787,9 @@
         <v>100.34962179999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -21770,9 +21816,9 @@
         <v>115.5862724</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -21799,9 +21845,9 @@
         <v>92.236288389999999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -21828,9 +21874,9 @@
         <v>86.755958190000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -21866,18 +21912,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -21888,24 +21934,24 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -21929,9 +21975,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -21955,9 +22001,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -21981,9 +22027,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -22007,9 +22053,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -22033,9 +22079,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -22059,9 +22105,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -22085,9 +22131,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -22111,9 +22157,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -22137,9 +22183,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -22163,9 +22209,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -22189,9 +22235,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -22215,9 +22261,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -22241,9 +22287,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -22267,9 +22313,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -22293,9 +22339,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -22319,9 +22365,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -22345,9 +22391,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -22371,9 +22417,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -22397,9 +22443,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -22423,9 +22469,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -22449,9 +22495,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -22475,9 +22521,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -22501,9 +22547,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -22527,9 +22573,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -22553,9 +22599,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -22579,9 +22625,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -22605,9 +22651,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -22631,9 +22677,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -22657,9 +22703,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -22683,9 +22729,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -22709,9 +22755,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -22735,9 +22781,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -22761,9 +22807,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -22787,9 +22833,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -22813,9 +22859,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -22839,9 +22885,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -22865,9 +22911,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -22891,9 +22937,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -22917,9 +22963,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -22943,9 +22989,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -22969,9 +23015,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -22995,9 +23041,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -23021,9 +23067,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -23047,9 +23093,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -23073,9 +23119,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -23099,9 +23145,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -23125,9 +23171,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -23165,13 +23211,13 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:AV2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -23185,372 +23231,372 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="DT1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -23694,9 +23740,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -23840,9 +23886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -23986,9 +24032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -24132,9 +24178,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -24278,9 +24324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -24424,9 +24470,9 @@
         <v>6.8190000000000004E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -24570,9 +24616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -24716,9 +24762,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -24862,9 +24908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25008,9 +25054,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -25154,9 +25200,9 @@
         <v>1.7941999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -25300,9 +25346,9 @@
         <v>1.8097E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -25446,9 +25492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -25592,9 +25638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -25738,9 +25784,9 @@
         <v>3.7990000000000002E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -25884,9 +25930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -26030,9 +26076,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -26176,9 +26222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -26322,9 +26368,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -26468,9 +26514,9 @@
         <v>1.56E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -26614,9 +26660,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -26760,9 +26806,9 @@
         <v>4.2260000000000003E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -26906,9 +26952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -27052,9 +27098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -27198,9 +27244,9 @@
         <v>5.3919999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -27344,9 +27390,9 @@
         <v>7.3711000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -27490,9 +27536,9 @@
         <v>7.3674999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -27636,9 +27682,9 @@
         <v>8.8459999999999997E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -27782,9 +27828,9 @@
         <v>9.6409999999999996E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -27928,9 +27974,9 @@
         <v>4.6274000000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -28074,9 +28120,9 @@
         <v>6.5662000000000003E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -28220,9 +28266,9 @@
         <v>1.0989799999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -28366,9 +28412,9 @@
         <v>6.6413000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -28512,9 +28558,9 @@
         <v>1.36408E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -28658,9 +28704,9 @@
         <v>1.35204E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -28804,9 +28850,9 @@
         <v>3.7284900000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -28950,9 +28996,9 @@
         <v>1.35096E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -29096,9 +29142,9 @@
         <v>7.1938999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -29242,9 +29288,9 @@
         <v>5.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -29388,9 +29434,9 @@
         <v>2.1007E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -29534,9 +29580,9 @@
         <v>5.6930000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -29680,9 +29726,9 @@
         <v>4.574E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -29829,9 +29875,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -29975,9 +30021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -30121,9 +30167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -30267,9 +30313,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -30413,9 +30459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -30559,9 +30605,9 @@
         <v>1.2265697000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -30705,9 +30751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -30851,9 +30897,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -30997,9 +31043,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -31143,9 +31189,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -31289,9 +31335,9 @@
         <v>2.2979070000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -31435,9 +31481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -31581,9 +31627,9 @@
         <v>5.0036330000000004E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -31727,9 +31773,9 @@
         <v>1.015918E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -31873,9 +31919,9 @@
         <v>1.787507E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -32019,9 +32065,9 @@
         <v>3.8400000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -32165,9 +32211,9 @@
         <v>5.7899999999999998E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -32311,9 +32357,9 @@
         <v>4.8799999999999999E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -32457,9 +32503,9 @@
         <v>2.147918E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -32603,9 +32649,9 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -32749,9 +32795,9 @@
         <v>3.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -32895,9 +32941,9 @@
         <v>5.2183059999999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -33041,9 +33087,9 @@
         <v>9.0621699999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -33187,9 +33233,9 @@
         <v>5.9682789999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -33333,9 +33379,9 @@
         <v>1.672599E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -33479,9 +33525,9 @@
         <v>3.0567051000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -33625,9 +33671,9 @@
         <v>2.6680812000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -33771,9 +33817,9 @@
         <v>1.0948591000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -33917,9 +33963,9 @@
         <v>1.9182588E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -34063,9 +34109,9 @@
         <v>2.4798536999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -34209,9 +34255,9 @@
         <v>7.954961E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -34355,9 +34401,9 @@
         <v>2.5243982000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -34501,9 +34547,9 @@
         <v>1.0161418E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -34647,9 +34693,9 @@
         <v>1.3962746999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -34793,9 +34839,9 @@
         <v>1.7643513999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -34939,9 +34985,9 @@
         <v>9.1752120000000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -35085,9 +35131,9 @@
         <v>8.2687860000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -35231,9 +35277,9 @@
         <v>4.1420789999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -35377,9 +35423,9 @@
         <v>1.838894E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -35536,16 +35582,16 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -35559,73 +35605,73 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -35652,7 +35698,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -35679,63 +35725,63 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -35745,19 +35791,19 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -35766,102 +35812,102 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="9"/>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="9"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" s="9"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" s="9"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" s="9"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70" s="9"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -35869,7 +35915,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -35878,103 +35924,103 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="94" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F96" s="9"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="9"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F122" s="9"/>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F125" s="9"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134" s="9"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141" s="9"/>
     </row>
   </sheetData>
@@ -35991,15 +36037,15 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="15" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="25" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="25" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -36008,376 +36054,376 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y11" s="9"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y12" s="9"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y20" s="9"/>
     </row>
-    <row r="21" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y22" s="9"/>
     </row>
-    <row r="23" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y23" s="9"/>
     </row>
-    <row r="24" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y26" s="9"/>
     </row>
-    <row r="27" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y29" s="9"/>
     </row>
-    <row r="30" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y30" s="9"/>
     </row>
-    <row r="31" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y31" s="9"/>
     </row>
-    <row r="32" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y49"/>
     </row>
-    <row r="50" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y50"/>
     </row>
-    <row r="51" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y51"/>
     </row>
-    <row r="52" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y52"/>
     </row>
-    <row r="53" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y53"/>
     </row>
-    <row r="54" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y54"/>
     </row>
-    <row r="55" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y55"/>
     </row>
-    <row r="56" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y56"/>
     </row>
-    <row r="57" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y57"/>
     </row>
-    <row r="58" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y58"/>
     </row>
-    <row r="59" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y59"/>
     </row>
-    <row r="60" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y60"/>
     </row>
-    <row r="61" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y61"/>
     </row>
-    <row r="62" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y62"/>
     </row>
-    <row r="63" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y63"/>
     </row>
-    <row r="64" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y64"/>
     </row>
-    <row r="65" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y65"/>
     </row>
-    <row r="66" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y66"/>
     </row>
-    <row r="67" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y67"/>
     </row>
-    <row r="68" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y68"/>
     </row>
-    <row r="69" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y69"/>
     </row>
-    <row r="70" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y70"/>
     </row>
-    <row r="71" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y71"/>
     </row>
-    <row r="72" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y72"/>
     </row>
-    <row r="73" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y73"/>
     </row>
-    <row r="74" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y74"/>
     </row>
-    <row r="75" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y75"/>
     </row>
-    <row r="76" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y76"/>
     </row>
-    <row r="77" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y77"/>
     </row>
-    <row r="78" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y85"/>
     </row>
-    <row r="86" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y86"/>
     </row>
-    <row r="87" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y87"/>
     </row>
-    <row r="88" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y88"/>
     </row>
-    <row r="89" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y89"/>
     </row>
-    <row r="90" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y90"/>
     </row>
-    <row r="91" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y95" s="9"/>
     </row>
   </sheetData>
@@ -36393,17 +36439,17 @@
       <selection activeCell="F22" sqref="F22:Y41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -36412,72 +36458,72 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -36552,9 +36598,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -36629,9 +36675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -36706,9 +36752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -36783,9 +36829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -36860,9 +36906,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -36937,9 +36983,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -37014,9 +37060,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -37091,9 +37137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -37168,9 +37214,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -37245,9 +37291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -37322,9 +37368,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -37399,9 +37445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -37476,9 +37522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -37553,9 +37599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -37630,9 +37676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -37707,9 +37753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -37784,9 +37830,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -37861,9 +37907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -37938,9 +37984,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -38015,9 +38061,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -38092,9 +38138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -38169,9 +38215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -38246,9 +38292,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -38323,9 +38369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -38400,9 +38446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -38477,9 +38523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -38554,9 +38600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -38631,9 +38677,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -38708,9 +38754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -38785,9 +38831,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -38862,9 +38908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -38939,9 +38985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -39016,9 +39062,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -39093,9 +39139,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -39170,9 +39216,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -39247,9 +39293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -39324,9 +39370,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -39401,9 +39447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -39478,9 +39524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B41">
         <v>1</v>
